--- a/doulicha/logements.xlsx
+++ b/doulicha/logements.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="29">
   <si>
     <t>Nom du logement</t>
   </si>
@@ -38,43 +38,67 @@
     <t>Image du logement</t>
   </si>
   <si>
-    <t>darMariem</t>
-  </si>
-  <si>
-    <t>aaaaaaaaaaaaaaaaaa</t>
-  </si>
-  <si>
-    <t>zzzzzzzzzzzzzzzzzzzzz</t>
-  </si>
-  <si>
-    <t>villa</t>
-  </si>
-  <si>
-    <t>Réservé</t>
-  </si>
-  <si>
-    <t>hh</t>
-  </si>
-  <si>
-    <t>testtesttest</t>
-  </si>
-  <si>
-    <t>test</t>
+    <t>dsfdsfdsf</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>1600 Amphitheatre Parkway, Mountain View, CA 94043, USA</t>
   </si>
   <si>
     <t>Villa</t>
   </si>
   <si>
+    <t>Disponible</t>
+  </si>
+  <si>
     <t>maison2.jpg</t>
   </si>
   <si>
-    <t>testsamedi</t>
-  </si>
-  <si>
-    <t>Chambre privée</t>
+    <t>appartementAlainSavary</t>
+  </si>
+  <si>
+    <t>22 Rue Alain Savary, Tunis 1002, Tunisie</t>
+  </si>
+  <si>
+    <t>Appartement</t>
   </si>
   <si>
     <t>appartement.jpg</t>
+  </si>
+  <si>
+    <t>testdrag</t>
+  </si>
+  <si>
+    <t>aaaaaaaaaaa</t>
+  </si>
+  <si>
+    <t>1600 Pennsylvania Ave NW, Washington, DC 20500, USA</t>
+  </si>
+  <si>
+    <t>file:/C:/3A3/doulichaFX/images/maison2.jpg</t>
+  </si>
+  <si>
+    <t>dar</t>
+  </si>
+  <si>
+    <t>daradradard</t>
+  </si>
+  <si>
+    <t>Avenue Habib Bourguiba, Sousse, Tunisie</t>
+  </si>
+  <si>
+    <t>Maison d'hôtes</t>
+  </si>
+  <si>
+    <t>file:/C:/3A3/doulichaFX/images/appartement.jpg</t>
+  </si>
+  <si>
+    <t>testimage</t>
+  </si>
+  <si>
+    <t>villa1.jpg</t>
   </si>
 </sst>
 </file>
@@ -119,7 +143,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -162,10 +186,10 @@
         <v>10</v>
       </c>
       <c r="D2" t="n">
-        <v>100.0</v>
+        <v>1200.0</v>
       </c>
       <c r="E2" t="n">
-        <v>5.0</v>
+        <v>2.0</v>
       </c>
       <c r="F2" t="s">
         <v>11</v>
@@ -182,16 +206,16 @@
         <v>14</v>
       </c>
       <c r="B3" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="C3" t="s">
         <v>15</v>
       </c>
       <c r="D3" t="n">
-        <v>1500.0</v>
+        <v>120.0</v>
       </c>
       <c r="E3" t="n">
-        <v>10.0</v>
+        <v>2.0</v>
       </c>
       <c r="F3" t="s">
         <v>16</v>
@@ -208,25 +232,77 @@
         <v>18</v>
       </c>
       <c r="B4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C4" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D4" t="n">
-        <v>150.0</v>
+        <v>250.0</v>
       </c>
       <c r="E4" t="n">
         <v>1.0</v>
       </c>
       <c r="F4" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="G4" t="s">
         <v>12</v>
       </c>
       <c r="H4" t="s">
-        <v>20</v>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" t="n">
+        <v>2500.0</v>
+      </c>
+      <c r="E5" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="F5" t="s">
+        <v>25</v>
+      </c>
+      <c r="G5" t="s">
+        <v>12</v>
+      </c>
+      <c r="H5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>27</v>
+      </c>
+      <c r="B6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" t="n">
+        <v>1250.0</v>
+      </c>
+      <c r="E6" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="F6" t="s">
+        <v>11</v>
+      </c>
+      <c r="G6" t="s">
+        <v>12</v>
+      </c>
+      <c r="H6" t="s">
+        <v>28</v>
       </c>
     </row>
   </sheetData>

--- a/doulicha/logements.xlsx
+++ b/doulicha/logements.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="21">
   <si>
     <t>Nom du logement</t>
   </si>
@@ -38,67 +38,43 @@
     <t>Image du logement</t>
   </si>
   <si>
-    <t>dsfdsfdsf</t>
+    <t>testfinal</t>
   </si>
   <si>
     <t/>
   </si>
   <si>
+    <t>22 Rue Alain Savary, Tunis 1002, Tunisie</t>
+  </si>
+  <si>
+    <t>Appartement</t>
+  </si>
+  <si>
+    <t>Disponible</t>
+  </si>
+  <si>
+    <t>localhost/img/appartement.jpg</t>
+  </si>
+  <si>
+    <t>testekhir</t>
+  </si>
+  <si>
     <t>1600 Amphitheatre Parkway, Mountain View, CA 94043, USA</t>
   </si>
   <si>
     <t>Villa</t>
   </si>
   <si>
-    <t>Disponible</t>
-  </si>
-  <si>
-    <t>maison2.jpg</t>
-  </si>
-  <si>
-    <t>appartementAlainSavary</t>
-  </si>
-  <si>
-    <t>22 Rue Alain Savary, Tunis 1002, Tunisie</t>
-  </si>
-  <si>
-    <t>Appartement</t>
-  </si>
-  <si>
-    <t>appartement.jpg</t>
-  </si>
-  <si>
-    <t>testdrag</t>
-  </si>
-  <si>
-    <t>aaaaaaaaaaa</t>
-  </si>
-  <si>
-    <t>1600 Pennsylvania Ave NW, Washington, DC 20500, USA</t>
-  </si>
-  <si>
-    <t>file:/C:/3A3/doulichaFX/images/maison2.jpg</t>
-  </si>
-  <si>
-    <t>dar</t>
-  </si>
-  <si>
-    <t>daradradard</t>
-  </si>
-  <si>
-    <t>Avenue Habib Bourguiba, Sousse, Tunisie</t>
+    <t>localhost/img/villa1.jpg</t>
+  </si>
+  <si>
+    <t>DarMountain</t>
   </si>
   <si>
     <t>Maison d'hôtes</t>
   </si>
   <si>
-    <t>file:/C:/3A3/doulichaFX/images/appartement.jpg</t>
-  </si>
-  <si>
-    <t>testimage</t>
-  </si>
-  <si>
-    <t>villa1.jpg</t>
+    <t>localhost/img/Maison_d'hotes.jpg</t>
   </si>
 </sst>
 </file>
@@ -143,7 +119,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H6"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -189,7 +165,7 @@
         <v>1200.0</v>
       </c>
       <c r="E2" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="F2" t="s">
         <v>11</v>
@@ -212,10 +188,10 @@
         <v>15</v>
       </c>
       <c r="D3" t="n">
-        <v>120.0</v>
+        <v>150.0</v>
       </c>
       <c r="E3" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="F3" t="s">
         <v>16</v>
@@ -232,77 +208,25 @@
         <v>18</v>
       </c>
       <c r="B4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" t="n">
+        <v>500.0</v>
+      </c>
+      <c r="E4" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="F4" t="s">
         <v>19</v>
-      </c>
-      <c r="C4" t="s">
-        <v>20</v>
-      </c>
-      <c r="D4" t="n">
-        <v>250.0</v>
-      </c>
-      <c r="E4" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="F4" t="s">
-        <v>16</v>
       </c>
       <c r="G4" t="s">
         <v>12</v>
       </c>
       <c r="H4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="s">
-        <v>22</v>
-      </c>
-      <c r="B5" t="s">
-        <v>23</v>
-      </c>
-      <c r="C5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" t="n">
-        <v>2500.0</v>
-      </c>
-      <c r="E5" t="n">
-        <v>10.0</v>
-      </c>
-      <c r="F5" t="s">
-        <v>25</v>
-      </c>
-      <c r="G5" t="s">
-        <v>12</v>
-      </c>
-      <c r="H5" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="s">
-        <v>27</v>
-      </c>
-      <c r="B6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D6" t="n">
-        <v>1250.0</v>
-      </c>
-      <c r="E6" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="F6" t="s">
-        <v>11</v>
-      </c>
-      <c r="G6" t="s">
-        <v>12</v>
-      </c>
-      <c r="H6" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
